--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất Nhập Kho 2025/Nhập kho/Tháng 9/NKSX_399TB_TG102LE4G_0056ESIM_170925.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất Nhập Kho 2025/Nhập kho/Tháng 9/NKSX_399TB_TG102LE4G_0056ESIM_170925.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho_2025\NhapKho\Thang9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất Nhập Kho 2025\Nhập kho\Tháng 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B605E0-40E8-45FC-AB65-E3354DF19023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D8894-4DB0-4556-90BA-F25214D8BDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -334,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -366,13 +366,25 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,12 +408,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -409,12 +415,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -859,57 +859,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="16" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="24" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="24"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="24" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="24"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="24" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="24"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -963,29 +963,29 @@
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="23"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="10" t="s">
         <v>2</v>
       </c>
@@ -994,25 +994,25 @@
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="12">
         <v>399</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="12" t="s">
         <v>25</v>
       </c>
@@ -1033,46 +1033,46 @@
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="13"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="14"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -1135,25 +1135,25 @@
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="15"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1166,6 +1166,18 @@
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E1:K3"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L11:M11"/>
@@ -1173,21 +1185,9 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F17:K17"/>
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1.2" bottom="1.2" header="0" footer="0"/>
